--- a/DataAnalysis/data.xlsx
+++ b/DataAnalysis/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosbach\Desktop\DataAnalysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosbach\Desktop\AB\DataAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF2B574-7185-4015-A3AD-84247B665C01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6093988C-00D0-4989-B058-DA8A172835B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="samples" sheetId="41" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="50">
   <si>
     <t>TP</t>
   </si>
@@ -70,64 +70,7 @@
     <t>no TP</t>
   </si>
   <si>
-    <t>performance = mean absolute deviation of TCP estimate (EstB or EstAI) form GT (here per participant).</t>
-  </si>
-  <si>
-    <t>Anova: Zweifaktorielle Varianzanalyse mit Messwiederholung</t>
-  </si>
-  <si>
-    <t>ZUSAMMENFASSUNG</t>
-  </si>
-  <si>
-    <t>Gesamt</t>
-  </si>
-  <si>
-    <t>Anzahl</t>
-  </si>
-  <si>
-    <t>Summe</t>
-  </si>
-  <si>
-    <t>Mittelwert</t>
-  </si>
-  <si>
-    <t>Varianz</t>
-  </si>
-  <si>
     <t>ANOVA</t>
-  </si>
-  <si>
-    <t>Streuungsursache</t>
-  </si>
-  <si>
-    <t>Quadratsummen (SS)</t>
-  </si>
-  <si>
-    <t>Freiheitsgrade (df)</t>
-  </si>
-  <si>
-    <t>Mittlere Quadratsumme (MS)</t>
-  </si>
-  <si>
-    <t>Prüfgröße (F)</t>
-  </si>
-  <si>
-    <t>P-Wert</t>
-  </si>
-  <si>
-    <t>kritischer F-Wert</t>
-  </si>
-  <si>
-    <t>Stichprobe</t>
-  </si>
-  <si>
-    <t>Spalten</t>
-  </si>
-  <si>
-    <t>Wechselwirkung</t>
-  </si>
-  <si>
-    <t>Fehler</t>
   </si>
   <si>
     <t>noTP - EstB</t>
@@ -136,40 +79,100 @@
     <t>TP - EstB</t>
   </si>
   <si>
-    <t>Zweistichproben t-Test bei abhängigen Stichproben (Paarvergleichstest)</t>
-  </si>
-  <si>
     <t>Variable 1</t>
   </si>
   <si>
     <t>Variable 2</t>
   </si>
   <si>
-    <t>Beobachtungen</t>
+    <t>here entry = mean JAS per participant</t>
   </si>
   <si>
-    <t>Pearson Korrelation</t>
+    <t>t-Test: Paired Two Sample for Means</t>
   </si>
   <si>
-    <t>Hypothetische Differenz der Mittelwerte</t>
+    <t>Mean</t>
   </si>
   <si>
-    <t>t-Statistik</t>
+    <t>Variance</t>
   </si>
   <si>
-    <t>P(T&lt;=t) einseitig</t>
+    <t>Observations</t>
   </si>
   <si>
-    <t>Kritischer t-Wert bei einseitigem t-Test</t>
+    <t>Pearson Correlation</t>
   </si>
   <si>
-    <t>P(T&lt;=t) zweiseitig</t>
+    <t>Hypothesized Mean Difference</t>
   </si>
   <si>
-    <t>Kritischer t-Wert bei zweiseitigem t-Test</t>
+    <t>df</t>
   </si>
   <si>
-    <t>here entry = mean JAS per participant</t>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) one-tail</t>
+  </si>
+  <si>
+    <t>t Critical one-tail</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) two-tail</t>
+  </si>
+  <si>
+    <t>t Critical two-tail</t>
+  </si>
+  <si>
+    <t>performance = mean absolute deviation of TCP estimate (EstB or EstAI) form GT (here entry = mean performance per participant).</t>
+  </si>
+  <si>
+    <t>Anova: Two-Factor With Replication</t>
+  </si>
+  <si>
+    <t>SUMMARY</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Source of Variation</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>F crit</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>Columns</t>
+  </si>
+  <si>
+    <t>Interaction</t>
+  </si>
+  <si>
+    <t>Within</t>
   </si>
 </sst>
 </file>
@@ -265,7 +268,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -281,7 +284,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -603,9 +606,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FAC3896-BEFE-4349-81DE-094D92EBFDEC}">
   <dimension ref="A1:N561"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -26981,10 +26984,10 @@
   <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
@@ -26994,7 +26997,7 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -27017,7 +27020,7 @@
         <v>8.5</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -27038,7 +27041,7 @@
         <v>15.6</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
@@ -27047,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -27074,7 +27077,7 @@
         <v>10.9</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="F7" s="1">
         <v>28</v>
@@ -27095,7 +27098,7 @@
         <v>16.8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F8" s="1">
         <v>379.39999999999986</v>
@@ -27116,7 +27119,7 @@
         <v>20.8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="F9" s="1">
         <v>13.549999999999995</v>
@@ -27137,7 +27140,7 @@
         <v>9.4</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F10" s="1">
         <v>23.171481481481653</v>
@@ -27186,7 +27189,7 @@
         <v>10.3</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="F13" s="1">
         <v>28</v>
@@ -27207,7 +27210,7 @@
         <v>9.5</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F14" s="1">
         <v>328.7</v>
@@ -27228,7 +27231,7 @@
         <v>21.5</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="F15" s="1">
         <v>11.739285714285714</v>
@@ -27249,7 +27252,7 @@
         <v>15.1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F16" s="1">
         <v>13.758029100529122</v>
@@ -27283,7 +27286,7 @@
         <v>12.8</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -27298,7 +27301,7 @@
         <v>17</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="F19" s="1">
         <v>56</v>
@@ -27317,7 +27320,7 @@
         <v>21.5</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F20" s="1">
         <v>708.09999999999991</v>
@@ -27336,7 +27339,7 @@
         <v>9.4</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="F21" s="1">
         <v>12.644642857142857</v>
@@ -27355,7 +27358,7 @@
         <v>29.4</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F22" s="1">
         <v>18.963607142857157</v>
@@ -27396,7 +27399,7 @@
         <v>17</v>
       </c>
       <c r="E25" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
@@ -27408,25 +27411,25 @@
         <v>12.4</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
@@ -27438,7 +27441,7 @@
         <v>14.1</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F27" s="1">
         <v>166.359375</v>
@@ -27468,7 +27471,7 @@
         <v>16.5</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="F28" s="1">
         <v>34.654375000000528</v>
@@ -27498,7 +27501,7 @@
         <v>12</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="F29" s="1">
         <v>11.000089285713784</v>
@@ -27530,7 +27533,7 @@
         <v>15.2</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="F30" s="1">
         <v>2160.5960714285716</v>
@@ -27570,7 +27573,7 @@
         <v>12.3</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F32" s="3">
         <v>2372.6099107142859</v>
@@ -27823,20 +27826,20 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -27855,7 +27858,7 @@
         <v>8.5</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -27875,10 +27878,10 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -27889,7 +27892,7 @@
         <v>23.2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" s="1">
         <v>13.549999999999995</v>
@@ -27906,7 +27909,7 @@
         <v>10.9</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7" s="1">
         <v>23.171481481481653</v>
@@ -27923,7 +27926,7 @@
         <v>16.8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E8" s="1">
         <v>28</v>
@@ -27940,7 +27943,7 @@
         <v>20.8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E9" s="1">
         <v>0.43081701463174454</v>
@@ -27955,7 +27958,7 @@
         <v>9.4</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -27970,7 +27973,7 @@
         <v>14.6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11" s="1">
         <v>27</v>
@@ -27985,7 +27988,7 @@
         <v>11.6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E12" s="1">
         <v>-1.757457783701748</v>
@@ -28000,7 +28003,7 @@
         <v>10.3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E13" s="1">
         <v>4.5087363176152188E-2</v>
@@ -28015,7 +28018,7 @@
         <v>9.5</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E14" s="1">
         <v>1.7032884457221271</v>
@@ -28030,7 +28033,7 @@
         <v>21.5</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E15" s="1">
         <v>9.0174726352304377E-2</v>
@@ -28045,7 +28048,7 @@
         <v>15.1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E16" s="3">
         <v>2.0518305164802859</v>
@@ -28165,11 +28168,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F30C15-AF29-4DF9-8D4B-6D8B4E451367}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -28179,7 +28182,7 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -28198,7 +28201,7 @@
         <v>0.58969380035169505</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -28218,10 +28221,10 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -28232,7 +28235,7 @@
         <v>0.55000236850992734</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" s="1">
         <v>0.48944081911153797</v>
@@ -28249,7 +28252,7 @@
         <v>0.71602192867349024</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7" s="1">
         <v>1.6257235261742085E-2</v>
@@ -28266,7 +28269,7 @@
         <v>0.51156901980858427</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E8" s="1">
         <v>28</v>
@@ -28283,7 +28286,7 @@
         <v>0.63244293548641373</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E9" s="1">
         <v>0.54039993857181934</v>
@@ -28298,7 +28301,7 @@
         <v>0.54436480186480185</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -28313,7 +28316,7 @@
         <v>0.45124777183600723</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11" s="1">
         <v>27</v>
@@ -28328,7 +28331,7 @@
         <v>0.35686868686868689</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E12" s="1">
         <v>-2.8016208935224651</v>
@@ -28343,7 +28346,7 @@
         <v>0.39760392218223539</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E13" s="1">
         <v>4.6443897073598275E-3</v>
@@ -28358,7 +28361,7 @@
         <v>0.48354575163398689</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E14" s="1">
         <v>1.7032884457221271</v>
@@ -28373,7 +28376,7 @@
         <v>0.63845307917888561</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E15" s="1">
         <v>9.2887794147196549E-3</v>
@@ -28388,7 +28391,7 @@
         <v>0.31406028138655839</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E16" s="3">
         <v>2.0518305164802859</v>
@@ -28501,5 +28504,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>